--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.011020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.011020.xlsx_with_dialog_acts.xlsx
@@ -1105,12 +1105,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1525,12 +1525,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1819,12 +1819,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2747,12 +2747,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3503,12 +3503,12 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3797,12 +3797,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4137,12 +4137,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4389,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5027,12 +5027,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5069,12 +5069,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5825,12 +5825,12 @@
       <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5867,12 +5867,12 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5993,12 +5993,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6119,12 +6119,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6203,12 +6203,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6455,12 +6455,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6623,12 +6623,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7043,12 +7043,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7127,12 +7127,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7295,12 +7295,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7463,12 +7463,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7505,12 +7505,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -7757,12 +7757,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7841,12 +7841,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7967,12 +7967,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8597,12 +8597,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8849,12 +8849,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8891,12 +8891,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -9227,12 +9227,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9311,12 +9311,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9983,12 +9983,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10151,12 +10151,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10193,12 +10193,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10869,12 +10869,12 @@
       <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10911,12 +10911,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11247,12 +11247,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12217,12 +12217,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12343,12 +12343,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13271,12 +13271,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13481,12 +13481,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13565,12 +13565,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13607,12 +13607,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13691,12 +13691,12 @@
       <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13863,12 +13863,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14463,12 +14463,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14505,12 +14505,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14589,12 +14589,12 @@
       <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15097,12 +15097,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15223,12 +15223,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15475,12 +15475,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15811,12 +15811,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16315,12 +16315,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16735,12 +16735,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16945,12 +16945,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17449,12 +17449,12 @@
       <c r="H404" t="inlineStr"/>
       <c r="I404" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17701,12 +17701,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17869,12 +17869,12 @@
       <c r="H414" t="inlineStr"/>
       <c r="I414" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18247,12 +18247,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18625,12 +18625,12 @@
       <c r="H432" t="inlineStr"/>
       <c r="I432" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18961,12 +18961,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19171,12 +19171,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20095,12 +20095,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20137,12 +20137,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
